--- a/coupang_click.xlsx
+++ b/coupang_click.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.1android\AndroidStudioProjects\29.reward\reward-auto-main\reward-auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B56F10-7F77-48E9-893F-6A2C6E976952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193461BA-5283-4685-A8D2-0E3DA8CDDC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>number</t>
   </si>
@@ -64,31 +64,30 @@
     <t>ok</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>노트북</t>
   </si>
   <si>
     <t>change_ip_nok</t>
   </si>
   <si>
-    <t>nok</t>
-  </si>
-  <si>
     <t>멜라토닌</t>
   </si>
   <si>
-    <t>location_mobile_off,location_web_on</t>
-  </si>
-  <si>
     <t xml:space="preserve">베르가못 </t>
   </si>
   <si>
     <t>change_ip_ok</t>
   </si>
   <si>
-    <t>location_mobile_on,location_web_off</t>
-  </si>
-  <si>
-    <t>test_location_mode_on</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scroll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,17 +459,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" customWidth="1"/>
+    <col min="7" max="7" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +508,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -524,13 +528,16 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>6662026640</v>
@@ -542,13 +549,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
         <v>16</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -560,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -577,16 +584,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -598,12 +602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>8481420851</v>
@@ -617,14 +621,11 @@
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -636,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -653,10 +654,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -677,5 +675,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/coupang_click.xlsx
+++ b/coupang_click.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.1android\AndroidStudioProjects\29.reward\reward-auto-main\reward-auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193461BA-5283-4685-A8D2-0E3DA8CDDC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AA1C05-119E-480E-99DB-2481797E11A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37248" yWindow="2928" windowWidth="14124" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>number</t>
   </si>
@@ -28,9 +28,6 @@
     <t>keyword</t>
   </si>
   <si>
-    <t>target_product_id</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>노트북</t>
   </si>
   <si>
     <t>change_ip_nok</t>
@@ -87,6 +81,22 @@
   </si>
   <si>
     <t>scroll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경성약초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양별곡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_product_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,19 +469,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="17.3984375" customWidth="1"/>
-    <col min="7" max="7" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,196 +491,173 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>6662026640</v>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>8330083472</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>8082235457</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>8324684205</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>8481420851</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>8330083472</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>8324684205</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
     </row>

--- a/coupang_click.xlsx
+++ b/coupang_click.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.1android\AndroidStudioProjects\29.reward\reward-auto-main\reward-auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AA1C05-119E-480E-99DB-2481797E11A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148FB32A-6E4A-4134-A067-D563E85CF66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37248" yWindow="2928" windowWidth="14124" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39936" yWindow="1308" windowWidth="17664" windowHeight="13296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,83 +20,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>number</t>
   </si>
   <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>ad click</t>
+  </si>
+  <si>
+    <t>change_ip</t>
+  </si>
+  <si>
+    <t>location_off</t>
+  </si>
+  <si>
+    <t>result_click</t>
+  </si>
+  <si>
+    <t>result_ad_click</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>detail_page</t>
+  </si>
+  <si>
+    <t>detail_ad_page</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>test_location_mode_off</t>
+  </si>
+  <si>
+    <t>nok</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>멜라토닌</t>
+  </si>
+  <si>
+    <t>영양별곡</t>
+  </si>
+  <si>
+    <t>change_ip_ok</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">베르가못 </t>
+  </si>
+  <si>
+    <t>경성약초</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>change_ip_nok</t>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_product_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>keyword</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>ad click</t>
-  </si>
-  <si>
-    <t>change_ip</t>
-  </si>
-  <si>
-    <t>location_off</t>
-  </si>
-  <si>
-    <t>result_click</t>
-  </si>
-  <si>
-    <t>result_ad_click</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>detail_page</t>
-  </si>
-  <si>
-    <t>detail_ad_page</t>
-  </si>
-  <si>
-    <t>test_location_mode_off</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>change_ip_nok</t>
-  </si>
-  <si>
-    <t>멜라토닌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">베르가못 </t>
-  </si>
-  <si>
-    <t>change_ip_ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scroll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>product name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경성약초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영양별곡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_product_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -472,59 +472,53 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" customWidth="1"/>
-    <col min="8" max="8" width="23.3984375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -552,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
       <c r="D3">
         <v>8330083472</v>
@@ -567,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -590,10 +584,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>8082235457</v>
@@ -605,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -614,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -628,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
       </c>
       <c r="D5">
         <v>8330083472</v>
@@ -643,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -652,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L5">
         <v>2</v>

--- a/coupang_click.xlsx
+++ b/coupang_click.xlsx
@@ -593,11 +593,27 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nok</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">

--- a/coupang_click.xlsx
+++ b/coupang_click.xlsx
@@ -1,43 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.1android\AndroidStudioProjects\29.reward\reward-auto-main\reward-auto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1326B388-9D69-4FD3-9DAD-19BD58ECCF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>target_product_id</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>ad click</t>
+  </si>
+  <si>
+    <t>change_ip</t>
+  </si>
+  <si>
+    <t>location_off</t>
+  </si>
+  <si>
+    <t>result_click</t>
+  </si>
+  <si>
+    <t>result_ad_click</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>detail_page</t>
+  </si>
+  <si>
+    <t>detail_ad_page</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>멜라토닌</t>
+  </si>
+  <si>
+    <t>change_ip_nok</t>
+  </si>
+  <si>
+    <t>nok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">베르가못 </t>
+  </si>
+  <si>
+    <t>change_ip_ok</t>
+  </si>
+  <si>
+    <t>test_location_mode_off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_location_mode_on</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_location_mode_off,test_location_mode_on</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_ip_nok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_ip_no,change_ip_nok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome 시크릿모드 엑셀에 순위 저장</t>
+  </si>
+  <si>
+    <t>명령어 ex,저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">last_ip.txt, ip저장 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">location_state.txt, all_off 상태저장 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD6D6DD"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +161,60 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,236 +502,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="29.796875" customWidth="1"/>
+    <col min="7" max="7" width="21.796875" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="48.09765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>keyword</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>target_product_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ad click</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>change_ip</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>location_off</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>result_click</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>result_ad_click</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>detail_page</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>detail_ad_page</t>
-        </is>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>test_location_mode_off</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>멜라토닌</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
         <v>8324684205</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>change_ip_nok</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nok</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">베르가못 </t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
         <v>8481420851</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>change_ip_ok</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nok</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>멜라토닌</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>8324684205</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>change_ip_nok</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>test_location_mode_on</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>